--- a/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagsoptimal.xlsx
+++ b/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagsoptimal.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagsoptimal.xlsx
+++ b/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagsoptimal.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagsoptimal.xlsx
+++ b/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagsoptimal.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>OXO-5FI696 Augusta</t>
@@ -476,8 +487,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="2" t="n">
+        <v>43770</v>
       </c>
       <c r="B2" t="n">
         <v>9830.2001953125</v>
@@ -505,8 +516,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>5</v>
+      <c r="A3" s="2" t="n">
+        <v>43770.20833333334</v>
       </c>
       <c r="B3" t="n">
         <v>9838.639911042545</v>
@@ -534,8 +545,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>6</v>
+      <c r="A4" s="2" t="n">
+        <v>43770.25</v>
       </c>
       <c r="B4" t="n">
         <v>10389.78227539063</v>
@@ -563,8 +574,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>7</v>
+      <c r="A5" s="2" t="n">
+        <v>43770.29166666666</v>
       </c>
       <c r="B5" t="n">
         <v>10386.49541829427</v>
@@ -592,8 +603,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>8</v>
+      <c r="A6" s="2" t="n">
+        <v>43770.33333333334</v>
       </c>
       <c r="B6" t="n">
         <v>10373.74784342448</v>
@@ -621,8 +632,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>9</v>
+      <c r="A7" s="2" t="n">
+        <v>43770.375</v>
       </c>
       <c r="B7" t="n">
         <v>10376.72648179236</v>
@@ -650,8 +661,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>10</v>
+      <c r="A8" s="2" t="n">
+        <v>43770.41666666666</v>
       </c>
       <c r="B8" t="n">
         <v>10385.35484506303</v>
@@ -679,8 +690,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>11</v>
+      <c r="A9" s="2" t="n">
+        <v>43770.45833333334</v>
       </c>
       <c r="B9" t="n">
         <v>10399.76336263021</v>
@@ -708,8 +719,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>12</v>
+      <c r="A10" s="2" t="n">
+        <v>43770.5</v>
       </c>
       <c r="B10" t="n">
         <v>10415.00702311198</v>
@@ -737,8 +748,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>13</v>
+      <c r="A11" s="2" t="n">
+        <v>43770.54166666666</v>
       </c>
       <c r="B11" t="n">
         <v>10405.19947701446</v>
@@ -766,8 +777,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>14</v>
+      <c r="A12" s="2" t="n">
+        <v>43770.58333333334</v>
       </c>
       <c r="B12" t="n">
         <v>10420.07351888021</v>
@@ -795,8 +806,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>15</v>
+      <c r="A13" s="2" t="n">
+        <v>43770.625</v>
       </c>
       <c r="B13" t="n">
         <v>10405.66954752604</v>
@@ -824,8 +835,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>16</v>
+      <c r="A14" s="2" t="n">
+        <v>43770.66666666666</v>
       </c>
       <c r="B14" t="n">
         <v>10396.79109768908</v>
@@ -853,8 +864,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>17</v>
+      <c r="A15" s="2" t="n">
+        <v>43770.70833333334</v>
       </c>
       <c r="B15" t="n">
         <v>10396.95663578254</v>
@@ -882,8 +893,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>18</v>
+      <c r="A16" s="2" t="n">
+        <v>43770.75</v>
       </c>
       <c r="B16" t="n">
         <v>10336.5953748687</v>
@@ -911,8 +922,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>19</v>
+      <c r="A17" s="2" t="n">
+        <v>43770.79166666666</v>
       </c>
       <c r="B17" t="n">
         <v>10155.94965457128</v>
@@ -940,8 +951,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>20</v>
+      <c r="A18" s="2" t="n">
+        <v>43770.83333333334</v>
       </c>
       <c r="B18" t="n">
         <v>10158.6365641276</v>
@@ -969,8 +980,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>21</v>
+      <c r="A19" s="2" t="n">
+        <v>43770.875</v>
       </c>
       <c r="B19" t="n">
         <v>10154.23055826823</v>
@@ -998,8 +1009,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>22</v>
+      <c r="A20" s="2" t="n">
+        <v>43770.91666666666</v>
       </c>
       <c r="B20" t="n">
         <v>10166.29090983073</v>
@@ -1027,8 +1038,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>23</v>
+      <c r="A21" s="2" t="n">
+        <v>43770.95833333334</v>
       </c>
       <c r="B21" t="n">
         <v>10160.84934895833</v>
@@ -1056,8 +1067,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>24</v>
+      <c r="A22" s="2" t="n">
+        <v>43771</v>
       </c>
       <c r="B22" t="n">
         <v>10163.93843553046</v>
@@ -1085,8 +1096,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>25</v>
+      <c r="A23" s="2" t="n">
+        <v>43771.04166666666</v>
       </c>
       <c r="B23" t="n">
         <v>10186.94862151343</v>
@@ -1114,8 +1125,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>26</v>
+      <c r="A24" s="2" t="n">
+        <v>43771.08333333334</v>
       </c>
       <c r="B24" t="n">
         <v>10284.56992679884</v>
@@ -1143,8 +1154,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>27</v>
+      <c r="A25" s="2" t="n">
+        <v>43771.125</v>
       </c>
       <c r="B25" t="n">
         <v>10273.15801749742</v>
@@ -1172,8 +1183,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>28</v>
+      <c r="A26" s="2" t="n">
+        <v>43771.16666666666</v>
       </c>
       <c r="B26" t="n">
         <v>10285.64284667969</v>
@@ -1201,8 +1212,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>29</v>
+      <c r="A27" s="2" t="n">
+        <v>43771.20833333334</v>
       </c>
       <c r="B27" t="n">
         <v>10293.24330357143</v>
@@ -1230,8 +1241,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>30</v>
+      <c r="A28" s="2" t="n">
+        <v>43771.25</v>
       </c>
       <c r="B28" t="n">
         <v>10292.05209678461</v>
@@ -1259,8 +1270,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>31</v>
+      <c r="A29" s="2" t="n">
+        <v>43771.29166666666</v>
       </c>
       <c r="B29" t="n">
         <v>10294.56036783854</v>
@@ -1288,8 +1299,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>32</v>
+      <c r="A30" s="2" t="n">
+        <v>43771.33333333334</v>
       </c>
       <c r="B30" t="n">
         <v>10296.27518546481</v>
@@ -1317,8 +1328,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>33</v>
+      <c r="A31" s="2" t="n">
+        <v>43771.375</v>
       </c>
       <c r="B31" t="n">
         <v>10292.08815696023</v>
@@ -1346,8 +1357,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>34</v>
+      <c r="A32" s="2" t="n">
+        <v>43771.41666666666</v>
       </c>
       <c r="B32" t="n">
         <v>10353.45706380208</v>
@@ -1375,8 +1386,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>35</v>
+      <c r="A33" s="2" t="n">
+        <v>43771.45833333334</v>
       </c>
       <c r="B33" t="n">
         <v>10389.66647518382</v>
@@ -1404,8 +1415,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>36</v>
+      <c r="A34" s="2" t="n">
+        <v>43771.5</v>
       </c>
       <c r="B34" t="n">
         <v>10382.3775390625</v>
@@ -1433,8 +1444,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>37</v>
+      <c r="A35" s="2" t="n">
+        <v>43771.54166666666</v>
       </c>
       <c r="B35" t="n">
         <v>10528.7635172526</v>
@@ -1462,8 +1473,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>38</v>
+      <c r="A36" s="2" t="n">
+        <v>43771.58333333334</v>
       </c>
       <c r="B36" t="n">
         <v>10648.37232857696</v>
@@ -1491,8 +1502,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>39</v>
+      <c r="A37" s="2" t="n">
+        <v>43771.625</v>
       </c>
       <c r="B37" t="n">
         <v>10650.54233685662</v>
@@ -1520,8 +1531,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>40</v>
+      <c r="A38" s="2" t="n">
+        <v>43771.66666666666</v>
       </c>
       <c r="B38" t="n">
         <v>10677.24956417872</v>
@@ -1549,8 +1560,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>41</v>
+      <c r="A39" s="2" t="n">
+        <v>43771.70833333334</v>
       </c>
       <c r="B39" t="n">
         <v>10674.32596028646</v>
@@ -1578,8 +1589,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>42</v>
+      <c r="A40" s="2" t="n">
+        <v>43771.75</v>
       </c>
       <c r="B40" t="n">
         <v>10677.47801503414</v>
@@ -1607,8 +1618,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>43</v>
+      <c r="A41" s="2" t="n">
+        <v>43771.79166666666</v>
       </c>
       <c r="B41" t="n">
         <v>10699.67596028646</v>
@@ -1636,8 +1647,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>44</v>
+      <c r="A42" s="2" t="n">
+        <v>43771.83333333334</v>
       </c>
       <c r="B42" t="n">
         <v>10713.54175813533</v>
@@ -1665,8 +1676,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45</v>
+      <c r="A43" s="2" t="n">
+        <v>43771.875</v>
       </c>
       <c r="B43" t="n">
         <v>10608.39516314338</v>
@@ -1694,8 +1705,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>46</v>
+      <c r="A44" s="2" t="n">
+        <v>43771.91666666666</v>
       </c>
       <c r="B44" t="n">
         <v>10161.71319173177</v>
@@ -1723,8 +1734,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>60</v>
+      <c r="A45" s="2" t="n">
+        <v>43772.5</v>
       </c>
       <c r="B45" t="n">
         <v>9530.154354319851</v>
@@ -1752,8 +1763,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>61</v>
+      <c r="A46" s="2" t="n">
+        <v>43772.54166666666</v>
       </c>
       <c r="B46" t="n">
         <v>9783.172407670454</v>
@@ -1781,8 +1792,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>62</v>
+      <c r="A47" s="2" t="n">
+        <v>43772.58333333334</v>
       </c>
       <c r="B47" t="n">
         <v>9927.526529947916</v>
@@ -1810,8 +1821,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>63</v>
+      <c r="A48" s="2" t="n">
+        <v>43772.625</v>
       </c>
       <c r="B48" t="n">
         <v>9962.90773535977</v>
@@ -1839,8 +1850,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>64</v>
+      <c r="A49" s="2" t="n">
+        <v>43772.66666666666</v>
       </c>
       <c r="B49" t="n">
         <v>10004.07484826963</v>
@@ -1868,8 +1879,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>65</v>
+      <c r="A50" s="2" t="n">
+        <v>43772.70833333334</v>
       </c>
       <c r="B50" t="n">
         <v>10046.72832845052</v>
@@ -1897,8 +1908,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>66</v>
+      <c r="A51" s="2" t="n">
+        <v>43772.75</v>
       </c>
       <c r="B51" t="n">
         <v>10056.75607096354</v>
@@ -1926,8 +1937,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>67</v>
+      <c r="A52" s="2" t="n">
+        <v>43772.79166666666</v>
       </c>
       <c r="B52" t="n">
         <v>10073.43806966146</v>
@@ -1955,8 +1966,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>68</v>
+      <c r="A53" s="2" t="n">
+        <v>43772.83333333334</v>
       </c>
       <c r="B53" t="n">
         <v>10099.85244954427</v>
@@ -1984,8 +1995,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>69</v>
+      <c r="A54" s="2" t="n">
+        <v>43772.875</v>
       </c>
       <c r="B54" t="n">
         <v>10156.42995605469</v>
@@ -2013,8 +2024,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>70</v>
+      <c r="A55" s="2" t="n">
+        <v>43772.91666666666</v>
       </c>
       <c r="B55" t="n">
         <v>10159.99194951418</v>
@@ -2042,8 +2053,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>71</v>
+      <c r="A56" s="2" t="n">
+        <v>43772.95833333334</v>
       </c>
       <c r="B56" t="n">
         <v>10166.86752647211</v>
@@ -2071,8 +2082,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>72</v>
+      <c r="A57" s="2" t="n">
+        <v>43773</v>
       </c>
       <c r="B57" t="n">
         <v>10153.77068684896</v>
@@ -2100,8 +2111,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>73</v>
+      <c r="A58" s="2" t="n">
+        <v>43773.04166666666</v>
       </c>
       <c r="B58" t="n">
         <v>10188.72072774422</v>
@@ -2129,8 +2140,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>74</v>
+      <c r="A59" s="2" t="n">
+        <v>43773.08333333334</v>
       </c>
       <c r="B59" t="n">
         <v>10189.53721516927</v>
@@ -2158,8 +2169,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>75</v>
+      <c r="A60" s="2" t="n">
+        <v>43773.125</v>
       </c>
       <c r="B60" t="n">
         <v>10187.18659607438</v>
@@ -2187,8 +2198,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>76</v>
+      <c r="A61" s="2" t="n">
+        <v>43773.16666666666</v>
       </c>
       <c r="B61" t="n">
         <v>10233.35607096354</v>
@@ -2216,8 +2227,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>77</v>
+      <c r="A62" s="2" t="n">
+        <v>43773.20833333334</v>
       </c>
       <c r="B62" t="n">
         <v>10228.84271647135</v>
@@ -2245,8 +2256,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>78</v>
+      <c r="A63" s="2" t="n">
+        <v>43773.25</v>
       </c>
       <c r="B63" t="n">
         <v>10229.88055826823</v>
@@ -2274,8 +2285,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>79</v>
+      <c r="A64" s="2" t="n">
+        <v>43773.29166666666</v>
       </c>
       <c r="B64" t="n">
         <v>10239.05102744223</v>
@@ -2303,8 +2314,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>80</v>
+      <c r="A65" s="2" t="n">
+        <v>43773.33333333334</v>
       </c>
       <c r="B65" t="n">
         <v>10234.77820638021</v>
@@ -2332,8 +2343,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>81</v>
+      <c r="A66" s="2" t="n">
+        <v>43773.375</v>
       </c>
       <c r="B66" t="n">
         <v>10237.59608245093</v>
@@ -2361,8 +2372,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>82</v>
+      <c r="A67" s="2" t="n">
+        <v>43773.41666666666</v>
       </c>
       <c r="B67" t="n">
         <v>10367.09902672006</v>
@@ -2390,8 +2401,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>83</v>
+      <c r="A68" s="2" t="n">
+        <v>43773.45833333334</v>
       </c>
       <c r="B68" t="n">
         <v>10462.05454101562</v>
@@ -2419,8 +2430,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>84</v>
+      <c r="A69" s="2" t="n">
+        <v>43773.5</v>
       </c>
       <c r="B69" t="n">
         <v>10183.83104654948</v>
@@ -2448,8 +2459,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>85</v>
+      <c r="A70" s="2" t="n">
+        <v>43773.54166666666</v>
       </c>
       <c r="B70" t="n">
         <v>9717.961865637912</v>
@@ -2477,8 +2488,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>86</v>
+      <c r="A71" s="2" t="n">
+        <v>43773.58333333334</v>
       </c>
       <c r="B71" t="n">
         <v>9844.442473082983</v>
@@ -2506,8 +2517,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>87</v>
+      <c r="A72" s="2" t="n">
+        <v>43773.625</v>
       </c>
       <c r="B72" t="n">
         <v>10169.31243543388</v>
@@ -2535,8 +2546,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>88</v>
+      <c r="A73" s="2" t="n">
+        <v>43773.66666666666</v>
       </c>
       <c r="B73" t="n">
         <v>10363.37558265494</v>
@@ -2564,8 +2575,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>89</v>
+      <c r="A74" s="2" t="n">
+        <v>43773.70833333334</v>
       </c>
       <c r="B74" t="n">
         <v>10429.37246577996</v>
@@ -2593,8 +2604,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>90</v>
+      <c r="A75" s="2" t="n">
+        <v>43773.75</v>
       </c>
       <c r="B75" t="n">
         <v>10451.50484178046</v>
@@ -2622,8 +2633,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>91</v>
+      <c r="A76" s="2" t="n">
+        <v>43773.79166666666</v>
       </c>
       <c r="B76" t="n">
         <v>10173.87776692708</v>
@@ -2651,8 +2662,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>92</v>
+      <c r="A77" s="2" t="n">
+        <v>43773.83333333334</v>
       </c>
       <c r="B77" t="n">
         <v>10039.19246352014</v>
@@ -2680,8 +2691,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>93</v>
+      <c r="A78" s="2" t="n">
+        <v>43773.875</v>
       </c>
       <c r="B78" t="n">
         <v>10062.04959309896</v>
@@ -2709,8 +2720,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>94</v>
+      <c r="A79" s="2" t="n">
+        <v>43773.91666666666</v>
       </c>
       <c r="B79" t="n">
         <v>10075.26221516927</v>
@@ -2738,8 +2749,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>95</v>
+      <c r="A80" s="2" t="n">
+        <v>43773.95833333334</v>
       </c>
       <c r="B80" t="n">
         <v>10094.24353841146</v>
@@ -2767,8 +2778,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>96</v>
+      <c r="A81" s="2" t="n">
+        <v>43774</v>
       </c>
       <c r="B81" t="n">
         <v>10087.56266276042</v>
@@ -2796,8 +2807,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>97</v>
+      <c r="A82" s="2" t="n">
+        <v>43774.04166666666</v>
       </c>
       <c r="B82" t="n">
         <v>10084.82131368172</v>
@@ -2825,8 +2836,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>98</v>
+      <c r="A83" s="2" t="n">
+        <v>43774.08333333334</v>
       </c>
       <c r="B83" t="n">
         <v>10084.86519402118</v>
@@ -2854,8 +2865,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>99</v>
+      <c r="A84" s="2" t="n">
+        <v>43774.125</v>
       </c>
       <c r="B84" t="n">
         <v>10093.66628643645</v>
